--- a/src/main/resources/escribir.xlsx
+++ b/src/main/resources/escribir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SVTECHer06\eclipse-workspace\minedu-report\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA44D4D-470F-4B23-82F9-FFEC9F265D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EE7E6E-4D9C-4E5C-BF5C-DDA00AB1AA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>codigo local</t>
   </si>
@@ -44,106 +44,124 @@
     <t>nombre IE</t>
   </si>
   <si>
-    <t>N de contacto</t>
-  </si>
-  <si>
     <t>nombre de contacto</t>
   </si>
   <si>
-    <t>PEDRO CRUZ MARCA</t>
-  </si>
-  <si>
-    <t>RENE MAQUERA NAYRA</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS MARIATEGUI</t>
-  </si>
-  <si>
-    <t>JUAN VICENTE HUAMAN MONROY</t>
-  </si>
-  <si>
-    <t>42005 JOSE ROSA ARA</t>
-  </si>
-  <si>
-    <t>JULIA ESTHER RIVERA QUILLE</t>
-  </si>
-  <si>
-    <t>42122 SAN ISIDRO</t>
-  </si>
-  <si>
-    <t>NERIDA TICONA RAFAEL</t>
-  </si>
-  <si>
-    <t>985 852 697</t>
-  </si>
-  <si>
-    <t>42013 ROSA DOMINGA PEREZ LIENDO</t>
-  </si>
-  <si>
-    <t>RAQUEL NORMA NINAJA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>946 462 903</t>
-  </si>
-  <si>
-    <t>72115 MIGUEL GRAU</t>
-  </si>
-  <si>
-    <t>DARIO PERCY COLQUEHUANCA FLORES</t>
-  </si>
-  <si>
-    <t>DANIEL ALCIDES CARRION</t>
-  </si>
-  <si>
-    <t>ELIAS ORTIZ CALCINA</t>
-  </si>
-  <si>
-    <t>MANRIQUE DIAZ, ALFREDO MANUEL</t>
-  </si>
-  <si>
-    <t>HHELMO QUISPE LOZA</t>
-  </si>
-  <si>
-    <t>LIBERTADORES DE AMERICA</t>
-  </si>
-  <si>
-    <t>ALFREDO FLORES CRUZ</t>
-  </si>
-  <si>
-    <t>CRISTO REY</t>
-  </si>
-  <si>
-    <t>ROQUE CASTILLO, LUZMILA</t>
-  </si>
-  <si>
-    <t>40676 LA MANSION DE SOCABAYA</t>
-  </si>
-  <si>
-    <t>Callo Conto, Antonieta</t>
-  </si>
-  <si>
-    <t>POLITECNICO HUASCAR</t>
-  </si>
-  <si>
-    <t>ANGEL BARRIOS GALLEGOS</t>
-  </si>
-  <si>
-    <t>41003 ALMIRANTE MIGUEL GRAU</t>
-  </si>
-  <si>
-    <t>RUBEN ARMANDO CRUZ HUERTAS</t>
-  </si>
-  <si>
-    <t>38281 LILIA SALOME LLANTO CHAVEZ</t>
-  </si>
-  <si>
-    <t>BLANIA RUTH ELDRES ELDRES</t>
-  </si>
-  <si>
-    <t>BELAUNDE TERRY</t>
-  </si>
-  <si>
-    <t>LACASTRO OSEALLA, HERMALINDA MARIA</t>
+    <t>54039 ROSA DE SANTA MARIA</t>
+  </si>
+  <si>
+    <t>CLUBER PIMENTEL CHALQUE</t>
+  </si>
+  <si>
+    <t>54106 WARMA KUYAY</t>
+  </si>
+  <si>
+    <t>NARCISO ANTONIO PALOMINO MIRANDA</t>
+  </si>
+  <si>
+    <t>54336 VIRGEN DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>JOSE LUIS GONZALES HUALLPA</t>
+  </si>
+  <si>
+    <t>929 507 184</t>
+  </si>
+  <si>
+    <t>54307 VIRGEN COCHARCAS</t>
+  </si>
+  <si>
+    <t>ELOY PATIÑO VILLEGAS</t>
+  </si>
+  <si>
+    <t>40020 ESCUELA ECOLOGICA URBANA</t>
+  </si>
+  <si>
+    <t>LUIS ORDOÑEZ QUISPE</t>
+  </si>
+  <si>
+    <t>40058 IGNACIO ALVAREZ THOMAS</t>
+  </si>
+  <si>
+    <t>CALSINA MAMANI, RAUL</t>
+  </si>
+  <si>
+    <t>40061 ESTADO DE SUECIA</t>
+  </si>
+  <si>
+    <t>AREDONDO RODRIGUEZ, MARUJA</t>
+  </si>
+  <si>
+    <t>40018 PEDRO VILLENA HIDALGO</t>
+  </si>
+  <si>
+    <t>CARI ORTEGA, MARIVEL MADELEIN</t>
+  </si>
+  <si>
+    <t>41031 MADRE DEL DIVINO AMOR</t>
+  </si>
+  <si>
+    <t>Paucar Zuñiga, Adolfo Elard</t>
+  </si>
+  <si>
+    <t>40163 BENIGNO BALLON FARFAN</t>
+  </si>
+  <si>
+    <t>Vergara Lopez, Marina Josefina</t>
+  </si>
+  <si>
+    <t>ROSARIO GONZALES ALVAREZ</t>
+  </si>
+  <si>
+    <t>Flores Cebacollo, Julio Antonio</t>
+  </si>
+  <si>
+    <t>40209 HEROES DE YARABAMBA</t>
+  </si>
+  <si>
+    <t>Ponce Cayani, Rolando Hipolito</t>
+  </si>
+  <si>
+    <t>40102 NUESTRA SEÑORA DEL CARMEN PATRONA DE YURA</t>
+  </si>
+  <si>
+    <t>7 DE AGOSTO</t>
+  </si>
+  <si>
+    <t>XIOMARA GUISSELLE ARAGON GUERRA</t>
+  </si>
+  <si>
+    <t>CORIRE</t>
+  </si>
+  <si>
+    <t>ROSA CRUZ BUSTINZA</t>
+  </si>
+  <si>
+    <t>ALMIRANTE MIGUEL GRAU</t>
+  </si>
+  <si>
+    <t>MAYTA QUISPE, OSWALDO</t>
+  </si>
+  <si>
+    <t>40399 GRAL. JUAN VELASCO ALVARADO</t>
+  </si>
+  <si>
+    <t>JUAN DE DIOS JULIAN ROQUE HANCCO</t>
+  </si>
+  <si>
+    <t>40514 SAN PEDRO</t>
+  </si>
+  <si>
+    <t>VILCA ARAGON, YOVANNA ROSARIO</t>
+  </si>
+  <si>
+    <t>24348 CESAR VALLEJO</t>
+  </si>
+  <si>
+    <t>FELICITAS +A1:E20GARAY CARDENAS</t>
+  </si>
+  <si>
+    <t>numwri de contacto</t>
   </si>
 </sst>
 </file>
@@ -182,16 +200,26 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -478,43 +506,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>453204</v>
-      </c>
-      <c r="B2" s="2">
-        <v>70346</v>
-      </c>
-      <c r="C2" s="1">
-        <v>953837441</v>
+        <v>44513</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>926593673</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -522,83 +550,83 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>453360</v>
-      </c>
-      <c r="B3" s="2">
-        <v>70363</v>
-      </c>
-      <c r="C3" s="1">
-        <v>953837441</v>
+        <v>46890</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>990110063</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>460756</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>951888951</v>
+        <v>48974</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>486365</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>955251070</v>
+        <v>49129</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>935449894</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>810585</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>55634</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C6" s="2">
+        <v>959217460</v>
+      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>486412</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>59463</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>902221945</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>447883</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>59496</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
-        <v>951526566</v>
+      <c r="C8" s="2">
+        <v>903100875</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -606,13 +634,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>465283</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>60414</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
-        <v>988910006</v>
+      <c r="C9" s="2">
+        <v>973969102</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -620,133 +648,158 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>547444</v>
-      </c>
-      <c r="B10" s="2">
-        <v>40705</v>
-      </c>
-      <c r="C10" s="1">
-        <v>931386586</v>
+        <v>61300</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>920122901</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>78372</v>
-      </c>
-      <c r="B11" s="2">
-        <v>38842</v>
-      </c>
-      <c r="C11" s="1">
-        <v>994282726</v>
+        <v>62502</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>958549311</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>49011</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>920348026</v>
+        <v>64233</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>975072023</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>59806</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1">
-        <v>959015800</v>
+        <v>65341</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <v>929940719</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>64105</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1">
-        <v>984751338</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
+        <v>65416</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>999039690</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>441386</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
-        <v>975307029</v>
+        <v>65671</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>958798726</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>55422</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>979611845</v>
+        <v>69382</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>999117034</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>80619</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>943480761</v>
+        <v>70620</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>974589389</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>571245</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>965778567</v>
+        <v>71342</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2">
+        <v>999114149</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>73195</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>951627550</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>85990</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2">
+        <v>938143964</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
